--- a/Testing2.xlsx
+++ b/Testing2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Fichiers-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamn\Desktop\ExamIntraTest\Exam_Intra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902DB5C1-11F1-45DD-A51B-D28B22766DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130DAA0-99DB-4CFC-8534-CD36DA3A39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>THIS IS ANOTHER TEST!!!</t>
   </si>
   <si>
     <t>CAN YOU SEE ME?</t>
   </si>
+  <si>
+    <t>YES I CAN !!!!!!!!!!!!!!!!!!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,14 +80,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,23 +374,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="5" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
